--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/38_Iğdır_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/38_Iğdır_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE17A7D3-63CD-4A2B-AF9D-8840497B1DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71D3853A-8400-44A7-8883-477CBF77D950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="683" xr2:uid="{E07E6522-17DD-4CE6-A596-1C1FA116CA07}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="683" xr2:uid="{E42224EF-025F-4CF0-98AE-352D8341C440}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -923,14 +923,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{A3604727-502E-4F8D-A1F1-712E2F8A4076}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{46CDAF79-1C36-4AB2-88B4-63AF8F0EABE2}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{9C81F3E8-4AC6-4B99-964F-572B0BBA3BE0}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{8B2DFEDF-D09A-4469-9925-6D3D746D8517}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{7A58DE30-E5D5-4EC7-A387-4265C58FBFBF}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{DB53DAD4-5D3D-4F68-A6B4-77A687ADE8EA}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{C8307DBA-FCCF-4498-BBDC-C36D751FF93B}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{277ABA89-7CB2-4F9E-A6DF-3DF268950B7B}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{4AE8AFD6-9069-4412-B51D-AA19AB159F42}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{7DDFA623-CAA2-4B33-8DEB-FE9329BF3055}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{E3A4BE69-166E-4241-AFF8-034C1B9B473D}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{B6D2620A-F47A-4CBA-8C12-BB29973C6B1C}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{41B8A049-6096-4544-A79C-00E2F0FAB6A2}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{9E913290-6A9A-4019-AEA8-3D37270A9D3D}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{857C2E43-2EA5-4181-81CD-D2B4AC0F60E2}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{6FEC6303-C9D8-4988-B8BD-EB2C0020FABF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1300,7 +1300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E513AEA-706C-4E63-81E4-13AF44588B8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1DBAA7-241A-47C7-9844-70B7609E5F17}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2579,7 +2579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6521A8-7A71-4136-BDA7-1F5CDFC9E5F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9A4246-770C-43E2-92C3-99749D7DA080}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3850,7 +3850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECBA3335-07F3-4843-93CB-892D93949D3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBCB81F7-4CCF-49F4-A224-2451862755BD}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5123,7 +5123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF89A69-24EB-4626-BBA3-9BA0DD7A875D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84563EFB-BC6A-42F2-A339-CF6F925D7D4C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6390,7 +6390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA7FD9C-A3C3-4EF5-93B5-61D7FF5056BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F53246-1AF2-4B58-ADE4-6AD8ED4FFB46}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7667,7 +7667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581D5432-3757-4ED5-9F4E-A456F5DFCBB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC3408C-AC15-4BA0-99A8-E8FD59775204}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8936,7 +8936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647C410A-B598-4557-8273-D144E65E2A97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784B24A4-6548-4B76-A6E5-6C6646B23DC6}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10207,7 +10207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D68EA11-FCAF-4D9F-A850-891963FAD963}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867A3DD0-88D3-4C1E-8BE6-33A0F6E9A929}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11478,7 +11478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82890BE-31C3-45D7-9DDD-D17201C58A8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A91CA38-1383-4EA6-946E-66F95A0BB9CC}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12753,7 +12753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1A9DFD-3A64-40C3-901A-B5594E570300}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B566CD-68BD-4866-8B7F-606970B4A90E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14022,7 +14022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F94D141-2CE7-49B4-9BC2-766685142B8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900B0BCD-91FE-4234-8BAF-C47423C4D54C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15289,7 +15289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6137DA2-BC30-4C9C-9D0E-9C581B3E8D33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0B3D04-9681-465F-99FB-98AFF3D78762}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
